--- a/ChangePass.xlsx
+++ b/ChangePass.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
   <si>
     <t>newPassword</t>
   </si>
@@ -53,13 +53,16 @@
     <t>wrongNPass</t>
   </si>
   <si>
-    <t>WrongCPass</t>
-  </si>
-  <si>
     <t>vExpectedChange</t>
   </si>
   <si>
     <t>changeCondition</t>
+  </si>
+  <si>
+    <t>wrongCPass</t>
+  </si>
+  <si>
+    <t>Passed</t>
   </si>
 </sst>
 </file>
@@ -377,10 +380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -399,10 +402,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
         <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -460,7 +463,21 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
